--- a/Config/Language.xlsx
+++ b/Config/Language.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\zizouqi\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6A6DE-33D1-49D3-9758-ED4E2F8BF91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A37E2E4F-0349-47D9-9F05-F4D436DF7987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7040" yWindow="5510" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6490" yWindow="8490" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
   <si>
     <t>#</t>
   </si>
@@ -208,6 +208,207 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language_Chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language_English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改语言提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeLanguageTip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改语言将重启游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changing the language will restart the game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认界面确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm_Confirn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认界面取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm_Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始界面开始游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_StartGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始界面设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始界面继续游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title_ContinueGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_Audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面总音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面特效音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面UI音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue Game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master Volume</t>
+  </si>
+  <si>
+    <t>SFX Volume</t>
+  </si>
+  <si>
+    <t>UI Volume</t>
+  </si>
+  <si>
+    <t>Setting_MasterVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_SfxVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_UIVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面BGM音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_BGMVolume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM Volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置界面语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -626,232 +827,470 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>10001</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>10002</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8">
-        <v>10003</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>10004</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10">
-        <v>10005</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>10006</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="E11" t="s">
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>10001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>10002</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>10003</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>10004</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>10005</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>10006</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>10007</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D26" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
         <v>11001</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
         <v>11002</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
         <v>11003</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
         <v>12001</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D32" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
         <v>12002</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D33" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>49</v>
       </c>
     </row>
